--- a/ДЗ№1.xlsx
+++ b/ДЗ№1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>Subject:</t>
   </si>
@@ -310,12 +310,15 @@
   <si>
     <t>5) Нажать на кнопку закрыть</t>
   </si>
+  <si>
+    <t>Столбец1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,6 +356,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -362,7 +371,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -394,6 +403,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -401,9 +419,6 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -426,12 +441,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
     <dxf>
       <font>
         <strike val="0"/>
@@ -533,16 +551,27 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -574,9 +603,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:H24" totalsRowShown="0" headerRowDxfId="11" dataDxfId="0" headerRowBorderDxfId="9" tableBorderDxfId="10">
-  <autoFilter ref="A1:H24"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:I24" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
+  <autoFilter ref="A1:I24"/>
+  <tableColumns count="9">
     <tableColumn id="1" name="№" dataDxfId="8"/>
     <tableColumn id="2" name="Subject:" dataDxfId="7"/>
     <tableColumn id="3" name="Description:" dataDxfId="6"/>
@@ -585,6 +614,7 @@
     <tableColumn id="6" name="Data:" dataDxfId="3"/>
     <tableColumn id="7" name="Expected Result:" dataDxfId="2"/>
     <tableColumn id="8" name="Postconditions:" dataDxfId="1"/>
+    <tableColumn id="9" name="Столбец1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -879,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,372 +924,407 @@
     <col min="8" max="8" width="39.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="I2" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="I3" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="72.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="I4" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>123</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="I5" s="7">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="84.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="I6" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="114" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
